--- a/src/test/java/resources/mysmoketestdata.xlsx
+++ b/src/test/java/resources/mysmoketestdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tugba\Desktop\JAVA\B103TestNGProject\src\test\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tugba\IdeaProjects\B103TestNGProject\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0804D9A3-89DC-484F-B2A7-E11753F37F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="1935" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_info" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -32,12 +33,6 @@
   </si>
   <si>
     <t>c!fas_art</t>
-  </si>
-  <si>
-    <t>kate.brown@bluerentalcars.com</t>
-  </si>
-  <si>
-    <t>tad1$Fas</t>
   </si>
   <si>
     <t>raj.khan@bluerentalcars.com</t>
@@ -61,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -97,8 +92,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,13 +308,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -353,18 +350,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -373,7 +370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -396,10 +393,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
